--- a/level-2/hackerearth-phase-2-algorithms-sorting/hackerearth-phase-2-algorithms-sorting.xlsx
+++ b/level-2/hackerearth-phase-2-algorithms-sorting/hackerearth-phase-2-algorithms-sorting.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BCB6F6-D8DA-4191-BA22-EC068BEF37A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68565" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 - algorithms-sorting" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
   <si>
     <t>Problem Link</t>
   </si>
@@ -263,12 +264,243 @@
   </si>
   <si>
     <t>https://www.hackerearth.com/practice/algorithms/sorting/bucket-sort/practice-problems/algorithm/sort-the-array-5/</t>
+  </si>
+  <si>
+    <t>greedy algorithms</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/coprimed-32042ef1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/pikachu-and-the-game-of-strings-1-8c22a8ce/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/exploring-ruins/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/motu-and-patlu-1-ab612ad8/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/subxor-e114a622/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/unique-sorting-17d60d9f/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/bob-and-walls/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/decode-the-code-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/problem-17-f8bc297f/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/binary-matrix-1-d77d7d00/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/little-jhool-and-his-punishment/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/chandu-and-his-toy-stack/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/in-search-of-samosa-pledge-easy-3/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/fast-sort-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/jetha-and-cars-2d835131/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/hunger-games/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/minimum-flips/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/chandu-and-consecutive-letters/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/magic-squares/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/dorsplen/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/one-swap-to-palindrome-d96d4e21/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/maximum-range-7cb6dd0c/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/monster-gouketsu/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/little-jhool-and-his-addiction-2-4/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/arjit-and-printing-press/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/minimum-cabs-0798cfa5/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/c-32/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/swap-it-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/my-girlfriend-and-her-love-for-cats-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/hectic-game-2e74ada4/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/raj-his-slippers/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/flip-the-world/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/bob-and-profit-fd9f0ee3/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/mathison-and-the-funny-substring-b3f58587/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/introduction-to-programming/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/k-friends-89908017/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/easy-strong-permutation/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/forbidden-pairs/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/stranger-game-3-1f0d2f47/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/sharpen-the-pencils-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/add-subtract/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/yet-another-array-problem-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/filip-kotinioo-39795217/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/protect-the-cities/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/the-ancient-algorithm/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/toy-box-5044b3ed/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/destination-cost-2b27f15b/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/bob-and-gcd-d6d86b3b/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/ankur-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/mike-and-lms/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/array-modification-4569e6e6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/operations-on-an-array-2187f48a/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/protect-the-cities-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/division-of-salary-e495efbb/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/eat-or-not-22/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/ab-string-5f6b213a/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/smallest-chosen-word-0108fd21/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/harry-and-ron-play-a-game-of-chess/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/assorted-arrangement-3/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/an-easy-problem-1-47aac9ac/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/maximize-it/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/milly-and-chocolates-iv-6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/playing-cards-1-8abea701/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/taxi-please/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/the-falling-eagle-5/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/harry-and-horcrux-1-df65f8e9/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/arrays-force-easy-contest/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/threequal-parts-ecf91f02/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/help-1-0315faf6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/dexter-and-points-39399feb/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/maximal-subsequence-c9f19b0a/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/max-num-eb15ff4f/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/rooms-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/tree-tearing-easy-contest/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/the-friendly-bear-960ef1b2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/algorithms/greedy/basics-of-greedy-algorithms/practice-problems/algorithm/interesting-game-4-b6515135/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,14 +567,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -428,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,14 +690,11 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,12 +723,105 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -722,6 +1044,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -757,6 +1096,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,73 +1288,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="67.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.28515625" style="13" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="J1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
@@ -1029,10 +1385,10 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTA(J4:J880)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1049,11 +1405,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1069,11 +1425,11 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1090,11 +1446,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1111,11 +1467,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1128,15 +1484,15 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H66" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1153,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1174,11 +1530,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1195,11 +1551,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1216,11 +1572,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1237,11 +1593,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1258,11 +1614,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1279,11 +1635,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1300,11 +1656,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1321,11 +1677,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1342,11 +1698,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1363,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1384,11 +1740,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1405,11 +1761,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -1426,11 +1782,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1447,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1468,11 +1824,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1489,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1510,11 +1866,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1531,11 +1887,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1552,11 +1908,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -1573,11 +1929,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1594,11 +1950,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1615,11 +1971,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -1636,11 +1992,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -1657,11 +2013,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -1678,11 +2034,11 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1699,11 +2055,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -1720,11 +2076,11 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -1741,11 +2097,11 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -1762,11 +2118,11 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -1783,11 +2139,11 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1804,11 +2160,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -1825,11 +2181,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -1846,11 +2202,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>29</v>
       </c>
@@ -1867,11 +2223,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -1888,11 +2244,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
@@ -1909,11 +2265,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
@@ -1930,11 +2286,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
@@ -1951,11 +2307,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
@@ -1972,11 +2328,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
@@ -1993,11 +2349,11 @@
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -2014,11 +2370,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
@@ -2035,11 +2391,11 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -2056,11 +2412,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
@@ -2077,11 +2433,11 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -2098,11 +2454,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -2119,11 +2475,11 @@
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2140,11 +2496,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
@@ -2161,11 +2517,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -2182,11 +2538,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
@@ -2203,11 +2559,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
@@ -2224,11 +2580,11 @@
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
@@ -2245,11 +2601,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>74</v>
       </c>
@@ -2266,11 +2622,11 @@
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>74</v>
       </c>
@@ -2287,11 +2643,11 @@
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>74</v>
       </c>
@@ -2308,11 +2664,11 @@
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
@@ -2329,11 +2685,11 @@
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
@@ -2350,854 +2706,1600 @@
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H98" si="2">SUM(C67:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="H68" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="H69" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="H71" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="H72" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="H73" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="7"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="H74" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="7"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7"/>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7"/>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7"/>
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7"/>
-      <c r="J79" s="12"/>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="H75" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="12"/>
+      <c r="J75" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="12"/>
+      <c r="J78" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="12"/>
+      <c r="J79" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="7"/>
-      <c r="J80" s="12"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="H80" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="12"/>
+      <c r="J80" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="7"/>
-      <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7"/>
-      <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="H81" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="12"/>
+      <c r="J81" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="12"/>
+      <c r="J82" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="7"/>
-      <c r="J83" s="12"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="H83" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="7"/>
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="H84" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="12"/>
+      <c r="J84" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="7"/>
-      <c r="J85" s="12"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="H85" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="12"/>
+      <c r="J85" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="7"/>
-      <c r="J86" s="12"/>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="H86" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="12"/>
+      <c r="J86" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="7"/>
-      <c r="J87" s="12"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="H87" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="12"/>
+      <c r="J87" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="7"/>
-      <c r="J88" s="12"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="H88" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="12"/>
+      <c r="J88" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="7"/>
-      <c r="J89" s="12"/>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
+      <c r="H89" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="7"/>
-      <c r="J90" s="12"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="H90" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="12"/>
+      <c r="J90" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="7"/>
-      <c r="J91" s="12"/>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
+      <c r="H91" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="12"/>
+      <c r="J91" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="7"/>
-      <c r="J92" s="12"/>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7"/>
-      <c r="J93" s="12"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="7"/>
-      <c r="J94" s="12"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="H92" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="12"/>
+      <c r="J92" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="12"/>
+      <c r="J93" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="12"/>
+      <c r="J94" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" s="7"/>
-      <c r="J95" s="12"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7"/>
-      <c r="J96" s="12"/>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="H95" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="12"/>
+      <c r="J95" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="7"/>
-      <c r="J97" s="12"/>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="H97" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="12"/>
+      <c r="J97" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="7"/>
-      <c r="J98" s="12"/>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="H98" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="12"/>
+      <c r="J98" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="7"/>
-      <c r="J99" s="12"/>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="H99" s="11">
+        <f t="shared" ref="H99:H130" si="3">SUM(C99:G99)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="12"/>
+      <c r="J99" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="7"/>
-      <c r="J100" s="12"/>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="7"/>
-      <c r="J101" s="12"/>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7"/>
-      <c r="J102" s="12"/>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="H100" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="12"/>
+      <c r="J100" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="12"/>
+      <c r="J101" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="7"/>
-      <c r="J103" s="12"/>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="H103" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="12"/>
+      <c r="J103" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="7"/>
-      <c r="J104" s="12"/>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="H104" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="12"/>
+      <c r="J104" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="7"/>
-      <c r="J105" s="12"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="H105" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="12"/>
+      <c r="J105" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="7"/>
-      <c r="J106" s="12"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="7"/>
-      <c r="J107" s="12"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="H106" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="7"/>
-      <c r="J108" s="12"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="H108" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="12"/>
+      <c r="J108" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="7"/>
-      <c r="J109" s="12"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="H109" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="12"/>
+      <c r="J109" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="7"/>
-      <c r="J110" s="12"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="H110" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="12"/>
+      <c r="J110" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
-      <c r="H111" s="7"/>
-      <c r="J111" s="12"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="H111" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="12"/>
+      <c r="J111" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
-      <c r="H112" s="7"/>
-      <c r="J112" s="12"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="H112" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="12"/>
+      <c r="J112" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="7"/>
-      <c r="J113" s="12"/>
-    </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="H113" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="7"/>
-      <c r="J114" s="12"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="H114" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="12"/>
+      <c r="J114" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="7"/>
-      <c r="J115" s="12"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="H115" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="12"/>
+      <c r="J115" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="7"/>
-      <c r="J116" s="12"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="7"/>
-      <c r="J117" s="12"/>
-    </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="H116" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="12"/>
+      <c r="J116" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="12"/>
+      <c r="J117" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="7"/>
-      <c r="J118" s="12"/>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="H118" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="12"/>
+      <c r="J118" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="7"/>
-      <c r="J119" s="12"/>
-    </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="H119" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="12"/>
+      <c r="J119" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="7"/>
-      <c r="J120" s="12"/>
-    </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="H120" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="12"/>
+      <c r="J120" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
-      <c r="H121" s="7"/>
-      <c r="J121" s="12"/>
-    </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="H121" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
-      <c r="H122" s="7"/>
-      <c r="J122" s="12"/>
-    </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="H122" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="12"/>
+      <c r="J122" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
-      <c r="H123" s="7"/>
-      <c r="J123" s="12"/>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="H123" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="12"/>
+      <c r="J123" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
-      <c r="H124" s="7"/>
-      <c r="J124" s="12"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="H124" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="12"/>
+      <c r="J124" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="7"/>
-      <c r="J125" s="12"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
+      <c r="H125" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="12"/>
+      <c r="J125" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="7"/>
-      <c r="J126" s="12"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="H126" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="12"/>
+      <c r="J126" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
-      <c r="H127" s="7"/>
-      <c r="J127" s="12"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="H127" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="12"/>
+      <c r="J127" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="7"/>
-      <c r="J128" s="12"/>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="H128" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="12"/>
+      <c r="J128" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="7"/>
-      <c r="J129" s="12"/>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="H129" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="12"/>
+      <c r="J129" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="7"/>
-      <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="7"/>
-      <c r="J131" s="12"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="H130" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="12"/>
+      <c r="J130" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="11">
+        <f t="shared" ref="H131:H162" si="4">SUM(C131:G131)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="12"/>
+      <c r="J131" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
-      <c r="H132" s="7"/>
-      <c r="J132" s="12"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="H132" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="12"/>
+      <c r="J132" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
-      <c r="H133" s="7"/>
-      <c r="J133" s="12"/>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="H133" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="12"/>
+      <c r="J133" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
-      <c r="H134" s="7"/>
-      <c r="J134" s="12"/>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="H134" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="12"/>
+      <c r="J134" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
-      <c r="H135" s="7"/>
-      <c r="J135" s="12"/>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="H135" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="12"/>
+      <c r="J135" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
-      <c r="H136" s="7"/>
-      <c r="J136" s="12"/>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="7"/>
-      <c r="J137" s="12"/>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="H136" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="12"/>
+      <c r="J136" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
-      <c r="H138" s="7"/>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="H138" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
-      <c r="H139" s="7"/>
-      <c r="J139" s="12"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="7"/>
-      <c r="J140" s="12"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="H139" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
-      <c r="H141" s="7"/>
-      <c r="J141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="H141" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
-      <c r="H142" s="7"/>
-      <c r="J142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="9"/>
@@ -3206,9 +4308,9 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
-      <c r="J143" s="12"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J143" s="23"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="8"/>
@@ -3217,9 +4319,9 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
-      <c r="J144" s="12"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J144" s="23"/>
+    </row>
+    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -3228,7 +4330,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -3237,7 +4339,7 @@
       <c r="G146" s="9"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -3246,7 +4348,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -3255,7 +4357,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -3264,7 +4366,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -3273,7 +4375,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -3282,7 +4384,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -3291,7 +4393,7 @@
       <c r="G152" s="9"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -3300,7 +4402,7 @@
       <c r="G153" s="9"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -3309,7 +4411,7 @@
       <c r="G154" s="9"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -3318,7 +4420,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3327,7 +4429,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -3336,7 +4438,7 @@
       <c r="G157" s="9"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -3345,7 +4447,7 @@
       <c r="G158" s="9"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3354,7 +4456,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -3363,7 +4465,7 @@
       <c r="G160" s="9"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -3372,7 +4474,7 @@
       <c r="G161" s="9"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -3381,7 +4483,7 @@
       <c r="G162" s="9"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3390,7 +4492,7 @@
       <c r="G163" s="9"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -3399,7 +4501,7 @@
       <c r="G164" s="9"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3408,7 +4510,7 @@
       <c r="G165" s="9"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -3417,7 +4519,7 @@
       <c r="G166" s="9"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -3426,7 +4528,7 @@
       <c r="G167" s="9"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -3434,7 +4536,7 @@
       <c r="G168" s="9"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -3442,7 +4544,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -3450,7 +4552,7 @@
       <c r="G170" s="9"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -3458,7 +4560,7 @@
       <c r="G171" s="9"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -3466,7 +4568,7 @@
       <c r="G172" s="9"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -3474,7 +4576,7 @@
       <c r="G173" s="9"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -3482,7 +4584,7 @@
       <c r="G174" s="9"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -3490,7 +4592,7 @@
       <c r="G175" s="9"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -3512,166 +4614,302 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+  <conditionalFormatting sqref="J63:J65">
+    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+  <conditionalFormatting sqref="J63:J66">
+    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+  <conditionalFormatting sqref="J70">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <conditionalFormatting sqref="J74">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+  <conditionalFormatting sqref="J134">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+  <conditionalFormatting sqref="J126:J134">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="I63:I65">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="I134">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I63:I66">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126:I128 I130:I133">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126:I134">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:J86 I87:J89">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J126:J128 J130:J133">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J135">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J135">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83:I86">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-    <hyperlink ref="J7" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="J9" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J17" r:id="rId14"/>
-    <hyperlink ref="J18" r:id="rId15"/>
-    <hyperlink ref="J19" r:id="rId16"/>
-    <hyperlink ref="J20" r:id="rId17"/>
-    <hyperlink ref="J21" r:id="rId18"/>
-    <hyperlink ref="J22" r:id="rId19"/>
-    <hyperlink ref="J23" r:id="rId20"/>
-    <hyperlink ref="J24" r:id="rId21"/>
-    <hyperlink ref="J25" r:id="rId22"/>
-    <hyperlink ref="J26" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25"/>
-    <hyperlink ref="J29" r:id="rId26"/>
-    <hyperlink ref="J30" r:id="rId27"/>
-    <hyperlink ref="J31" r:id="rId28"/>
-    <hyperlink ref="J32" r:id="rId29"/>
-    <hyperlink ref="J33" r:id="rId30"/>
-    <hyperlink ref="J34" r:id="rId31"/>
-    <hyperlink ref="J35" r:id="rId32"/>
-    <hyperlink ref="J36" r:id="rId33"/>
-    <hyperlink ref="J37" r:id="rId34"/>
-    <hyperlink ref="J38" r:id="rId35"/>
-    <hyperlink ref="J39" r:id="rId36"/>
-    <hyperlink ref="J40" r:id="rId37"/>
-    <hyperlink ref="J41" r:id="rId38"/>
-    <hyperlink ref="J42" r:id="rId39"/>
-    <hyperlink ref="J43" r:id="rId40"/>
-    <hyperlink ref="J44" r:id="rId41"/>
-    <hyperlink ref="J45" r:id="rId42"/>
-    <hyperlink ref="J46" r:id="rId43"/>
-    <hyperlink ref="J47" r:id="rId44"/>
-    <hyperlink ref="J48" r:id="rId45"/>
-    <hyperlink ref="J49" r:id="rId46"/>
-    <hyperlink ref="J50" r:id="rId47"/>
-    <hyperlink ref="J51" r:id="rId48"/>
-    <hyperlink ref="J52" r:id="rId49"/>
-    <hyperlink ref="J53" r:id="rId50"/>
-    <hyperlink ref="J54" r:id="rId51"/>
-    <hyperlink ref="J55" r:id="rId52"/>
-    <hyperlink ref="J56" r:id="rId53"/>
-    <hyperlink ref="J57" r:id="rId54"/>
-    <hyperlink ref="J58" r:id="rId55"/>
-    <hyperlink ref="J59" r:id="rId56"/>
-    <hyperlink ref="J60" r:id="rId57"/>
-    <hyperlink ref="J61" r:id="rId58"/>
-    <hyperlink ref="J62" r:id="rId59"/>
-    <hyperlink ref="J63" r:id="rId60"/>
-    <hyperlink ref="J64" r:id="rId61"/>
-    <hyperlink ref="J65" r:id="rId62"/>
-    <hyperlink ref="J66" r:id="rId63"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J67" r:id="rId64" xr:uid="{6454EFC4-312B-4E96-AD61-914D291D1A8E}"/>
+    <hyperlink ref="J68" r:id="rId65" xr:uid="{8E39EE97-C55B-4E1A-8066-AB8DA7F78DE4}"/>
+    <hyperlink ref="J69" r:id="rId66" xr:uid="{3F2C7C85-99FD-4AC3-9535-DDFC2BA101D8}"/>
+    <hyperlink ref="J70" r:id="rId67" xr:uid="{0419F5AE-7633-4105-B3DB-59F10BAFB3B3}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{EE60E08B-7FF3-422E-A6D8-4B4B68B39F72}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{41CB359D-1C79-493B-84B3-CE4D4A27D6E0}"/>
+    <hyperlink ref="J73" r:id="rId70" xr:uid="{47F343D1-A068-4044-B369-2812631517A4}"/>
+    <hyperlink ref="J74" r:id="rId71" xr:uid="{AEB55880-6EF9-4C2F-8164-1753B3401AFE}"/>
+    <hyperlink ref="J75" r:id="rId72" xr:uid="{CA14F617-14A3-4679-B6D3-2B553F5378B6}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{379956AA-53BF-4C21-9375-6393B46D7624}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{B749DDDC-B418-4F3A-A4C6-190BC5597078}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{20CEDE1F-90C5-4568-A81B-B62F2A538BB7}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{B7601594-68D7-43D8-A40B-C844DEB2030D}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{95B55E08-A84A-4582-99F5-9EC443D386CA}"/>
+    <hyperlink ref="J81" r:id="rId78" xr:uid="{273BCA0C-583F-48BF-AC62-225564213A39}"/>
+    <hyperlink ref="J82" r:id="rId79" xr:uid="{E3A6B839-2AAF-49E9-AA62-7EDFC9AA462C}"/>
+    <hyperlink ref="J83" r:id="rId80" xr:uid="{E987E59B-7A18-4AF1-8861-C9948E0DE251}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{D0D1C4A5-50C4-4255-AF8D-43F6A7A444CD}"/>
+    <hyperlink ref="J85" r:id="rId82" xr:uid="{6A608CBD-18E9-4680-AE3F-E29708E1587F}"/>
+    <hyperlink ref="J86" r:id="rId83" xr:uid="{BD48C8C9-EEC1-48C1-A916-22E2B12E1444}"/>
+    <hyperlink ref="J87" r:id="rId84" xr:uid="{6E785585-D37B-4AD6-BD62-682880669DA2}"/>
+    <hyperlink ref="J88" r:id="rId85" xr:uid="{F7141676-69A6-48F4-A2D1-18E64AF44587}"/>
+    <hyperlink ref="J89" r:id="rId86" xr:uid="{3980FE26-537B-40A5-A4CF-6295A785BFFF}"/>
+    <hyperlink ref="J90" r:id="rId87" xr:uid="{4F30935E-6F60-406D-91F6-9097EB80AE16}"/>
+    <hyperlink ref="J91" r:id="rId88" xr:uid="{B5869FF2-B54D-401F-B636-C5D7069AD0BF}"/>
+    <hyperlink ref="J92" r:id="rId89" xr:uid="{77275FBB-1D43-4E07-8805-2900B743B5EC}"/>
+    <hyperlink ref="J93" r:id="rId90" xr:uid="{2A7F38DA-6CE4-4257-A434-1C09C3E0B268}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{C7DE61B5-B6B9-4794-A24A-22ADA498C6DF}"/>
+    <hyperlink ref="J95" r:id="rId92" xr:uid="{6C67ADE8-8C54-4747-802A-3836ABCD55FE}"/>
+    <hyperlink ref="J96" r:id="rId93" xr:uid="{04B11983-8C11-4662-BF05-366E47F4EAE6}"/>
+    <hyperlink ref="J97" r:id="rId94" xr:uid="{954A5538-336D-484A-A633-EE84BB0B7246}"/>
+    <hyperlink ref="J98" r:id="rId95" xr:uid="{FFC2EB3F-6EF6-4D64-B890-EE362D8FB0DF}"/>
+    <hyperlink ref="J99" r:id="rId96" xr:uid="{9C4EBE8E-1554-4AA9-847C-E13CC20465DE}"/>
+    <hyperlink ref="J100" r:id="rId97" xr:uid="{436351A3-FA29-44E5-99CC-DC14D5B42A11}"/>
+    <hyperlink ref="J101" r:id="rId98" xr:uid="{F75D6963-9A33-4ACE-B652-66C2E417050E}"/>
+    <hyperlink ref="J102" r:id="rId99" xr:uid="{8CF786F6-09F0-4ACD-8206-E508BB2A7664}"/>
+    <hyperlink ref="J103" r:id="rId100" xr:uid="{CEC7C390-4C31-48B1-A4DA-D7028788E359}"/>
+    <hyperlink ref="J104" r:id="rId101" xr:uid="{A816E9C7-8ACF-46E8-9BB0-2E038B80C2BF}"/>
+    <hyperlink ref="J105" r:id="rId102" xr:uid="{F22FC51B-1B6B-4F6E-9215-21968707D0E3}"/>
+    <hyperlink ref="J106" r:id="rId103" xr:uid="{111DBCD8-AACC-42A8-994E-A4B439A2ACE0}"/>
+    <hyperlink ref="J107" r:id="rId104" xr:uid="{5B10C81B-9947-4606-94A2-A5EC33B76099}"/>
+    <hyperlink ref="J108" r:id="rId105" xr:uid="{58418C11-D6BB-4980-954A-DB4BF9D882CB}"/>
+    <hyperlink ref="J109" r:id="rId106" xr:uid="{9649EDE5-249D-41F5-9ECA-8C301D7C5ECB}"/>
+    <hyperlink ref="J110" r:id="rId107" xr:uid="{DB10AF6D-DCEB-4CBF-A09F-5B80BE5E9DE0}"/>
+    <hyperlink ref="J111" r:id="rId108" xr:uid="{B6148A98-CFF8-45FD-8F66-BD55B874621E}"/>
+    <hyperlink ref="J112" r:id="rId109" xr:uid="{7BC29AD2-275B-485C-A7C1-9DE1BA9B6EBF}"/>
+    <hyperlink ref="J113" r:id="rId110" xr:uid="{920C671F-159E-4AC4-BAD8-36AABC3071D6}"/>
+    <hyperlink ref="J114" r:id="rId111" xr:uid="{195B51BC-B10F-4ECC-B5F7-682E43C0C7DD}"/>
+    <hyperlink ref="J115" r:id="rId112" xr:uid="{6299EE28-57AD-4C6F-9A4C-3A27CBBCC0EE}"/>
+    <hyperlink ref="J116" r:id="rId113" xr:uid="{BED84BA0-28E8-4927-884F-2682D55A4C89}"/>
+    <hyperlink ref="J117" r:id="rId114" xr:uid="{BC7A936E-D900-4101-BFB3-D67D2D851CE4}"/>
+    <hyperlink ref="J118" r:id="rId115" xr:uid="{1085E363-F0CB-4D9A-A8E4-2B80D6490AC6}"/>
+    <hyperlink ref="J119" r:id="rId116" xr:uid="{50705584-1786-401F-958F-3ED1C8AEC5A6}"/>
+    <hyperlink ref="J120" r:id="rId117" xr:uid="{FFE0B211-F5C8-4BB6-9751-3FE0DD8DC3C4}"/>
+    <hyperlink ref="J121" r:id="rId118" xr:uid="{8DFEC601-A069-4804-885A-CAE18CD868DF}"/>
+    <hyperlink ref="J122" r:id="rId119" xr:uid="{FF0D6852-6D17-4FC1-A105-76713029F768}"/>
+    <hyperlink ref="J123" r:id="rId120" xr:uid="{8FE8607C-745E-4E1F-9DEC-D1DAFED3C9A9}"/>
+    <hyperlink ref="J124" r:id="rId121" xr:uid="{9BF42503-467A-48A0-8AA3-B5CEF5E00BE5}"/>
+    <hyperlink ref="J125" r:id="rId122" xr:uid="{F1A22594-822D-4676-B7AB-11364C011A1B}"/>
+    <hyperlink ref="J126" r:id="rId123" xr:uid="{2ABA0ED1-8939-4D46-9785-40FC60BD2BEF}"/>
+    <hyperlink ref="J127" r:id="rId124" xr:uid="{1298E22A-8661-4EC2-B4D9-3025C0225CD9}"/>
+    <hyperlink ref="J128" r:id="rId125" xr:uid="{F5A694BC-A9D2-4B3F-80C4-2C69CBC24044}"/>
+    <hyperlink ref="J129" r:id="rId126" xr:uid="{80D4D589-5411-4B5E-933E-8B88BC3E241B}"/>
+    <hyperlink ref="J130" r:id="rId127" xr:uid="{A2389390-4122-45F0-800B-988A5F82E74D}"/>
+    <hyperlink ref="J131" r:id="rId128" xr:uid="{6CFE3C3F-F37E-46B1-8732-55682A090CA8}"/>
+    <hyperlink ref="J132" r:id="rId129" xr:uid="{C1688E36-8A8A-4492-B62B-8ED9B9156B10}"/>
+    <hyperlink ref="J133" r:id="rId130" xr:uid="{95F5612A-A9C6-46F1-B33D-D861674E5EC7}"/>
+    <hyperlink ref="J134" r:id="rId131" xr:uid="{617C1A2A-42B0-46D7-BEE2-3102C9411879}"/>
+    <hyperlink ref="J135" r:id="rId132" xr:uid="{34D20A23-B15D-40A5-8FA4-1C929DE95418}"/>
+    <hyperlink ref="J136" r:id="rId133" xr:uid="{D8EBEA89-EFF6-4445-9D90-6306E9B92E4B}"/>
+    <hyperlink ref="J137" r:id="rId134" xr:uid="{D4EE7B50-696A-435D-8382-FA3D22D135A4}"/>
+    <hyperlink ref="J138" r:id="rId135" xr:uid="{279A0791-0900-4361-9B71-11F8694AE8AD}"/>
+    <hyperlink ref="J139" r:id="rId136" xr:uid="{D1FF42CB-C507-433A-B19D-20E8DBBE8089}"/>
+    <hyperlink ref="J140" r:id="rId137" xr:uid="{117A555D-0556-423A-B67C-45938DD16323}"/>
+    <hyperlink ref="J141" r:id="rId138" xr:uid="{559FB8F2-94E1-473D-932A-7BBE593EC378}"/>
+    <hyperlink ref="J142" r:id="rId139" xr:uid="{3CA93104-74C5-4BC6-93E7-3ECDFBE007D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId140"/>
 </worksheet>
 </file>